--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -601,31 +601,31 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>15</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="L2">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M2">
-        <v>52.09</v>
+        <v>45.12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>19</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>56.72</v>
+        <v>56.22</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -683,31 +683,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
       </c>
       <c r="I4">
         <v>13</v>
       </c>
       <c r="J4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M4">
-        <v>46.03</v>
+        <v>44.97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -733,22 +733,22 @@
         <v>13</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>17</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>59.87</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -762,34 +762,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>71.02</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -821,16 +821,16 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L7">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>62.4</v>
       </c>
     </row>
   </sheetData>
@@ -898,19 +898,19 @@
         <v>215</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -939,22 +939,22 @@
         <v>201</v>
       </c>
       <c r="D3">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1024,16 +1024,16 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1062,25 +1062,25 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1201,31 +1201,31 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
       <c r="H2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="L2">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="M2">
-        <v>52.09</v>
+        <v>44.19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1239,34 +1239,34 @@
         <v>201</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
       <c r="I3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>36</v>
       </c>
       <c r="K3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L3">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M3">
-        <v>56.72</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1283,31 +1283,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
       <c r="I4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M4">
-        <v>46.03</v>
+        <v>43.92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -1333,22 +1333,22 @@
         <v>13</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
         <v>17</v>
       </c>
-      <c r="J5">
-        <v>16</v>
-      </c>
       <c r="K5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>59.87</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1362,34 +1362,34 @@
         <v>176</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
       <c r="H6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="L6">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>71.02</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1406,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L7">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>63.2</v>
       </c>
     </row>
   </sheetData>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2">
-        <v>58.97</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1536,28 +1536,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>51.22</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1577,25 +1577,25 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5">
-        <v>53.85</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1659,19 +1659,19 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>42.86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1703,13 +1703,13 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7">
-        <v>52.78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1758,22 +1758,22 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1808,22 +1808,22 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
       <c r="J10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10">
-        <v>71.43000000000001</v>
+        <v>64.29000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1910,10 +1910,10 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1922,22 +1922,22 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>33.33</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1951,31 +1951,31 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>47.22</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2004,16 +2004,16 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15">
-        <v>27.78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2027,31 +2027,31 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16">
-        <v>68.18000000000001</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2106,28 +2106,28 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18">
-        <v>65.38</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2308,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>25</v>
@@ -2340,22 +2340,22 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
       <c r="J24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24">
-        <v>78.26000000000001</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2375,10 +2375,10 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2387,13 +2387,13 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>89.66</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2410,28 +2410,28 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2451,25 +2451,25 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
       <c r="I27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K27">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L27">
-        <v>79.48999999999999</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -2495,19 +2495,19 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L28">
-        <v>82.05</v>
+        <v>71.79000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -2562,10 +2562,10 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2574,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L30">
-        <v>58.62</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2635,31 +2635,31 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L32">
-        <v>95.23999999999999</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2673,31 +2673,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L33">
-        <v>42.86</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2714,28 +2714,28 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L34">
-        <v>95.45</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2785,10 +2785,10 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>41.03</v>
+        <v>46.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>41.03</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2811,10 +2811,10 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>48.78</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>48.78</v>
+        <v>73.17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2837,10 +2837,10 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2863,10 +2863,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>46.15</v>
+        <v>53.85</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>46.15</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>57.14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2915,10 +2915,10 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>47.22</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>47.22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2993,10 +2993,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>28.57</v>
+        <v>32.14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>28.57</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>66.67</v>
+        <v>69.44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3097,10 +3097,10 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>52.78</v>
+        <v>55.56</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>52.78</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3135,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>72.22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3149,10 +3149,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>31.82</v>
+        <v>36.36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>31.82</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>34.62</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3357,10 +3357,10 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>21.74</v>
+        <v>26.09</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>21.74</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3383,10 +3383,10 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>51.52</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3435,10 +3435,10 @@
         <v>39</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>20.51</v>
+        <v>41.03</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>20.51</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3461,10 +3461,10 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>17.95</v>
+        <v>28.21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>17.95</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>41.38</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3565,10 +3565,10 @@
         <v>21</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>4.76</v>
+        <v>14.29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>4.76</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3591,10 +3591,10 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>57.14</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>57.14</v>
+        <v>64.29000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3617,10 +3617,10 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>4.55</v>
+        <v>18.18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4.55</v>
+        <v>18.18</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -601,31 +601,31 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
       <c r="G2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M2">
-        <v>45.12</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -645,28 +645,28 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M3">
-        <v>56.22</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>21</v>
@@ -724,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="M5">
-        <v>59.21</v>
+        <v>46.71</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -762,34 +762,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>11</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>62.5</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -815,22 +815,22 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>62.4</v>
+        <v>60.8</v>
       </c>
     </row>
   </sheetData>
@@ -898,25 +898,25 @@
         <v>215</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -939,22 +939,22 @@
         <v>201</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>26</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>152</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1062,34 +1062,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
         <v>52</v>
       </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L6">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>88.06999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1106,31 +1106,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1201,31 +1201,31 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>26</v>
       </c>
       <c r="K2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2">
-        <v>44.19</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1239,34 +1239,34 @@
         <v>201</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M3">
-        <v>55.22</v>
+        <v>52.24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1283,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>12</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>17</v>
@@ -1324,31 +1324,31 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="I5">
-        <v>16</v>
-      </c>
       <c r="J5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>59.21</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1362,34 +1362,34 @@
         <v>176</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>14</v>
-      </c>
       <c r="J6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>61.93</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1406,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>9</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L7">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>63.2</v>
+        <v>59.2</v>
       </c>
     </row>
   </sheetData>
@@ -1495,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="K2">
-        <v>21</v>
-      </c>
       <c r="L2">
-        <v>53.85</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1577,16 +1577,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -1615,13 +1615,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1647,31 +1647,31 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1685,22 +1685,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>18</v>
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1738,16 +1738,16 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L8">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1758,16 +1758,16 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1814,16 +1814,16 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L10">
-        <v>64.29000000000001</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1837,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1852,16 +1852,16 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
-        <v>58.33</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1875,31 +1875,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
       <c r="K12">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L12">
-        <v>86.48999999999999</v>
+        <v>70.27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1957,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>5</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1989,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2030,16 +2030,16 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -2065,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2141,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
       <c r="H19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <v>9</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2194,16 +2194,16 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L20">
-        <v>86.11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2220,28 +2220,28 @@
         <v>3</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L21">
-        <v>56.25</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2261,25 +2261,25 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>42.86</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2302,13 +2302,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>25</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2346,16 +2346,16 @@
         <v>5</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L24">
-        <v>73.91</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2366,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2407,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2445,22 +2445,22 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
         <v>3</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
       </c>
       <c r="J27">
         <v>16</v>
@@ -2486,13 +2486,13 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2501,13 +2501,13 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L28">
-        <v>71.79000000000001</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>6</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
       </c>
       <c r="J29">
         <v>19</v>
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -2635,31 +2635,31 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
         <v>5</v>
       </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
       <c r="K32">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L32">
-        <v>85.70999999999999</v>
+        <v>76.19</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2676,28 +2676,28 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>35.71</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2717,25 +2717,25 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34">
-        <v>81.81999999999999</v>
+        <v>77.27</v>
       </c>
     </row>
   </sheetData>
@@ -2785,10 +2785,10 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>46.15</v>
+        <v>53.85</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>46.15</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2863,10 +2863,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>53.85</v>
+        <v>58.97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2941,10 +2941,10 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>43.59</v>
+        <v>46.15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2993,10 +2993,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>32.14</v>
+        <v>39.29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>35.71</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3019,10 +3019,10 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>41.67</v>
+        <v>45.83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>41.67</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3045,10 +3045,10 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>13.51</v>
+        <v>29.73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>13.51</v>
+        <v>29.73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3253,10 +3253,10 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>13.89</v>
+        <v>27.78</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>13.89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3279,10 +3279,10 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>43.75</v>
+        <v>56.25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3291,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>43.75</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3305,10 +3305,10 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>57.14</v>
+        <v>61.9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>57.14</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3331,10 +3331,10 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>26.09</v>
+        <v>52.17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>26.09</v>
+        <v>39.13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3441,10 +3441,10 @@
         <v>41.03</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -3461,22 +3461,22 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>28.21</v>
+        <v>30.77</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>17.95</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>28.21</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3493,10 +3493,10 @@
         <v>52.78</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -3565,10 +3565,10 @@
         <v>21</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>14.29</v>
+        <v>19.05</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>14.29</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3597,16 +3597,16 @@
         <v>64.29000000000001</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>53.57</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>64.29000000000001</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3617,10 +3617,10 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>18.18</v>
+        <v>22.73</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>18.18</v>
+        <v>22.73</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -613,19 +613,19 @@
         <v>17</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M2">
-        <v>42.79</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -642,22 +642,22 @@
         <v>7</v>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
       </c>
       <c r="H3">
         <v>16</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>98</v>
@@ -683,31 +683,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
       <c r="J4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M4">
-        <v>44.97</v>
+        <v>40.74</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -724,22 +724,22 @@
         <v>2</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
       <c r="G5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
       <c r="J5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>81</v>
@@ -762,34 +762,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>17</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>61.93</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -806,31 +806,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>9</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>60.8</v>
+        <v>53.6</v>
       </c>
     </row>
   </sheetData>
@@ -901,31 +901,31 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>22</v>
-      </c>
       <c r="I2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L2">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -942,31 +942,31 @@
         <v>11</v>
       </c>
       <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
       <c r="I3">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L3">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -983,31 +983,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L4">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1024,31 +1024,31 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L5">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1062,16 +1062,16 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -1080,16 +1080,16 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L6">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="M6">
-        <v>88.06999999999999</v>
+        <v>67.05</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1106,31 +1106,31 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
         <v>21</v>
       </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
       <c r="K7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="L7">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="M7">
-        <v>88</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1213,19 +1213,19 @@
         <v>24</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M2">
-        <v>43.26</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -1251,22 +1251,22 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>52.24</v>
+        <v>51.74</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1283,31 +1283,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
       <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
       <c r="I4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L4">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M4">
-        <v>43.92</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1324,31 +1324,31 @@
         <v>2</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M5">
-        <v>51.97</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1362,16 +1362,16 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
       <c r="G6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -1380,16 +1380,16 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>61.36</v>
+        <v>56.82</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1406,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
       <c r="H7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>59.2</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1583,19 +1583,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1726,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>11</v>
@@ -1773,19 +1773,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>37.84</v>
+        <v>35.14</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1840,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>11</v>
@@ -1875,11 +1875,11 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
         <v>2</v>
       </c>
@@ -1887,10 +1887,10 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>25</v>
@@ -1960,22 +1960,22 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>44.44</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1992,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>27</v>
@@ -2027,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>26</v>
@@ -2106,28 +2106,28 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
         <v>10</v>
       </c>
-      <c r="K18">
-        <v>16</v>
-      </c>
       <c r="L18">
-        <v>61.54</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2147,25 +2147,25 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>57.14</v>
+        <v>54.29</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2179,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>9</v>
       </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
       <c r="G20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2223,25 +2223,25 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21">
-        <v>40.63</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2299,25 +2299,25 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L23">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2343,19 +2343,19 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24">
-        <v>60.87</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2366,34 +2366,34 @@
         <v>29</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L25">
-        <v>89.66</v>
+        <v>82.76000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2419,19 +2419,19 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L26">
-        <v>45.45</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2536,16 +2536,16 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L29">
-        <v>47.22</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2559,22 +2559,22 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2635,31 +2635,31 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>76.19</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2711,22 +2711,22 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -2791,10 +2791,10 @@
         <v>53.85</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>51.28</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -2817,10 +2817,10 @@
         <v>65.84999999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>58.54</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -2837,22 +2837,22 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2869,10 +2869,10 @@
         <v>58.97</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>48.72</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -2895,10 +2895,10 @@
         <v>57.14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>48.57</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -2921,10 +2921,10 @@
         <v>50</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>38.89</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -2947,10 +2947,10 @@
         <v>46.15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -2973,16 +2973,16 @@
         <v>62.16</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>62.16</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3025,10 +3025,10 @@
         <v>45.83</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -3097,22 +3097,22 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>55.56</v>
+        <v>58.33</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>38.89</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>55.56</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3129,10 +3129,10 @@
         <v>72.22</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -3155,10 +3155,10 @@
         <v>36.36</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -3181,10 +3181,10 @@
         <v>76.47</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="G17">
         <v>26</v>
@@ -3201,22 +3201,22 @@
         <v>26</v>
       </c>
       <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>57.69</v>
+      </c>
+      <c r="E18">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>34.62</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>38.46</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3227,22 +3227,22 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>42.86</v>
+        <v>45.71</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>42.86</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3259,10 +3259,10 @@
         <v>27.78</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -3285,16 +3285,16 @@
         <v>56.25</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>40.63</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>59.38</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3311,10 +3311,10 @@
         <v>61.9</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -3337,16 +3337,16 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23">
-        <v>62.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3363,16 +3363,16 @@
         <v>52.17</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>34.78</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>39.13</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3383,22 +3383,22 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>10.34</v>
+        <v>17.24</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>10.34</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3415,16 +3415,16 @@
         <v>51.52</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>54.55</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3493,16 +3493,16 @@
         <v>52.78</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F29">
-        <v>5.56</v>
+        <v>52.78</v>
       </c>
       <c r="G29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H29">
-        <v>52.78</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3539,22 +3539,22 @@
         <v>25</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3565,22 +3565,22 @@
         <v>21</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>19.05</v>
+        <v>23.81</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>23.81</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3597,10 +3597,10 @@
         <v>64.29000000000001</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F33">
-        <v>53.57</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -3623,10 +3623,10 @@
         <v>22.73</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="G34">
         <v>5</v>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -945,28 +945,28 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="L3">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="M3">
-        <v>79.59999999999999</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -992,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
         <v>12</v>
       </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>21</v>
-      </c>
       <c r="K7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L7">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M7">
-        <v>66.40000000000001</v>
+        <v>57.6</v>
       </c>
     </row>
   </sheetData>
@@ -1248,25 +1248,25 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M3">
-        <v>51.74</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1298,16 +1298,16 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4">
-        <v>39.68</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1805,25 +1805,25 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10">
-        <v>57.14</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1890,16 +1890,16 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>70.27</v>
+        <v>67.56999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>25</v>
@@ -2080,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>23.53</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2999,16 +2999,16 @@
         <v>39.29</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>42.86</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3051,16 +3051,16 @@
         <v>29.73</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>21.62</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>29.73</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3077,10 +3077,10 @@
         <v>66.67</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -3187,10 +3187,10 @@
         <v>67.65000000000001</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>76.47</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3519,10 +3519,10 @@
         <v>41.38</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>37.93</v>
       </c>
       <c r="G30">
         <v>11</v>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -957,16 +957,16 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L3">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>59.2</v>
+        <v>57.21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
         <v>15</v>
       </c>
-      <c r="J5">
-        <v>16</v>
-      </c>
       <c r="K5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M5">
-        <v>64.47</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1118,10 +1118,10 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7">
         <v>53</v>
@@ -2947,10 +2947,10 @@
         <v>46.15</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>33.33</v>
+        <v>35.9</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -3051,10 +3051,10 @@
         <v>29.73</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>21.62</v>
+        <v>29.73</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -3259,10 +3259,10 @@
         <v>27.78</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>11.11</v>
+        <v>13.89</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -3311,10 +3311,10 @@
         <v>61.9</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>38.1</v>
+        <v>42.86</v>
       </c>
       <c r="G22">
         <v>11</v>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -654,19 +654,19 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>34</v>
       </c>
       <c r="K3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3">
-        <v>51.24</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>29</v>
@@ -821,16 +821,16 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>53.6</v>
+        <v>52.8</v>
       </c>
     </row>
   </sheetData>
@@ -948,16 +948,16 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
       <c r="J3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>86</v>
@@ -998,16 +998,16 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>53.44</v>
+        <v>52.91</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1068,28 +1068,28 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6">
-        <v>67.05</v>
+        <v>66.48</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1245,28 +1245,28 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>16</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M3">
-        <v>50.75</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1374,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>22</v>
@@ -1418,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>60</v>
@@ -1735,10 +1735,10 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>14</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1852,16 +1852,16 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11">
-        <v>54.17</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2378,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2609,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>18</v>
@@ -2967,10 +2967,10 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>62.16</v>
+        <v>64.86</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -3031,10 +3031,10 @@
         <v>41.67</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>45.83</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3233,10 +3233,10 @@
         <v>45.71</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>28.57</v>
+        <v>31.43</v>
       </c>
       <c r="G19">
         <v>16</v>
@@ -3389,10 +3389,10 @@
         <v>17.24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>6.9</v>
+        <v>10.34</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -3591,10 +3591,10 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>64.29000000000001</v>
+        <v>67.86</v>
       </c>
       <c r="E33">
         <v>18</v>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -721,34 +721,34 @@
         <v>152</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>46.71</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -765,31 +765,31 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>13</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>60.8</v>
+        <v>60.23</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -821,16 +821,16 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>52.8</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -907,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>26</v>
       </c>
       <c r="K2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2">
-        <v>51.63</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -998,16 +998,16 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4">
-        <v>52.91</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1021,34 +1021,34 @@
         <v>152</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
       <c r="J5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>63.16</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1065,31 +1065,31 @@
         <v>8</v>
       </c>
       <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>24</v>
-      </c>
       <c r="G6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L6">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>66.48</v>
+        <v>64.77</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1118,10 +1118,10 @@
         <v>11</v>
       </c>
       <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
         <v>14</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
       </c>
       <c r="K7">
         <v>53</v>
@@ -1216,16 +1216,16 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M2">
-        <v>41.86</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1321,34 +1321,34 @@
         <v>152</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>17</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5">
-        <v>55.26</v>
+        <v>53.95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1365,31 +1365,31 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>13</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>56.82</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1421,16 +1421,16 @@
         <v>13</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>51.2</v>
       </c>
     </row>
   </sheetData>
@@ -1662,16 +1662,16 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>42.86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
       <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
         <v>8</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -2217,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -2252,34 +2252,34 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>47.62</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2483,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2536,16 +2536,16 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L29">
-        <v>38.89</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2650,16 +2650,16 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32">
-        <v>71.43000000000001</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2895,16 +2895,16 @@
         <v>57.14</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>48.57</v>
+        <v>51.43</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>57.14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3129,10 +3129,10 @@
         <v>72.22</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>69.44</v>
+        <v>72.22</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -3259,10 +3259,10 @@
         <v>27.78</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>13.89</v>
+        <v>19.44</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -3285,10 +3285,10 @@
         <v>56.25</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>40.63</v>
+        <v>46.88</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -3305,22 +3305,22 @@
         <v>21</v>
       </c>
       <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>52.38</v>
+      </c>
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="D22">
+      <c r="H22">
         <v>61.9</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>42.86</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>52.38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3415,10 +3415,10 @@
         <v>51.52</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>54.55</v>
+        <v>57.58</v>
       </c>
       <c r="G26">
         <v>21</v>
@@ -3467,10 +3467,10 @@
         <v>30.77</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>17.95</v>
+        <v>20.51</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -3487,22 +3487,22 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>52.78</v>
+        <v>55.56</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>52.78</v>
+        <v>55.56</v>
       </c>
       <c r="G29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29">
-        <v>61.11</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3565,10 +3565,10 @@
         <v>21</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>23.81</v>
+        <v>28.57</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -3577,10 +3577,10 @@
         <v>14.29</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>28.57</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="33" spans="1:8">

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -601,31 +601,31 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>17</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="M2">
-        <v>41.4</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -639,34 +639,34 @@
         <v>201</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
       <c r="G3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>34</v>
       </c>
       <c r="K3">
+        <v>102</v>
+      </c>
+      <c r="L3">
         <v>99</v>
       </c>
-      <c r="L3">
-        <v>102</v>
-      </c>
       <c r="M3">
-        <v>50.75</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -683,31 +683,31 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
       <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
       <c r="I4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L4">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M4">
-        <v>40.74</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -724,31 +724,31 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
         <v>17</v>
       </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
       <c r="K5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>45.39</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -765,31 +765,31 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>60.23</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -806,31 +806,31 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
       <c r="G7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>49.6</v>
       </c>
     </row>
   </sheetData>
@@ -901,31 +901,31 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
       <c r="I2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M2">
-        <v>51.16</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -939,34 +939,34 @@
         <v>201</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
       <c r="I3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L3">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>57.21</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -983,31 +983,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
       <c r="I4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L4">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="M4">
-        <v>52.38</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1024,31 +1024,31 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
       <c r="I5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M5">
-        <v>59.21</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1062,34 +1062,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
         <v>21</v>
       </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
       <c r="K6">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>64.77</v>
+        <v>55.11</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1106,31 +1106,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L7">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M7">
-        <v>57.6</v>
+        <v>49.6</v>
       </c>
     </row>
   </sheetData>
@@ -1201,31 +1201,31 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>26</v>
       </c>
       <c r="K2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M2">
-        <v>41.4</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1239,34 +1239,34 @@
         <v>201</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>51.24</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1283,31 +1283,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>177</v>
+      </c>
+      <c r="L4">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>115</v>
-      </c>
-      <c r="L4">
-        <v>74</v>
-      </c>
       <c r="M4">
-        <v>39.15</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1324,31 +1324,31 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="L5">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>53.95</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1362,34 +1362,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
         <v>77</v>
       </c>
-      <c r="L6">
-        <v>99</v>
-      </c>
       <c r="M6">
-        <v>56.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1406,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
-      </c>
-      <c r="J7">
-        <v>16</v>
-      </c>
       <c r="K7">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>51.2</v>
+        <v>22.4</v>
       </c>
     </row>
   </sheetData>
@@ -1495,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2">
-        <v>46.15</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1539,25 +1539,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L3">
-        <v>26.83</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1583,19 +1583,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1609,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>51.28</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1647,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1662,16 +1662,16 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1685,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1729,25 +1729,25 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>64.09999999999999</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1758,34 +1758,34 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>35.14</v>
+        <v>24.32</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1796,34 +1796,34 @@
         <v>28</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>3</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>53.57</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1840,28 +1840,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
       <c r="J11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>58.33</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1878,28 +1878,28 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L12">
-        <v>67.56999999999999</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1910,34 +1910,34 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>30.56</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1954,28 +1954,28 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>41.67</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1995,25 +1995,25 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2030,28 +2030,28 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>63.64</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2077,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>20.59</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2103,31 +2103,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>38.46</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2141,31 +2141,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="K19">
-        <v>19</v>
-      </c>
       <c r="L19">
-        <v>54.29</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2188,22 +2188,22 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20">
-        <v>75</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2220,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L21">
-        <v>46.88</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2255,31 +2255,31 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>38.1</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2296,28 +2296,28 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>42.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2334,28 +2334,28 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>65.22</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2372,28 +2372,28 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L25">
-        <v>82.76000000000001</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2404,34 +2404,34 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>36.36</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2442,19 +2442,19 @@
         <v>39</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
         <v>3</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2463,13 +2463,13 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L27">
-        <v>58.97</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2483,31 +2483,31 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
       <c r="J28">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K28">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L28">
-        <v>69.23</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>23</v>
@@ -2559,31 +2559,31 @@
         <v>0</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="K30">
         <v>7</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30">
-        <v>18</v>
-      </c>
       <c r="L30">
-        <v>62.07</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2638,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>4</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
       <c r="J32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>66.67</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2676,28 +2676,28 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>28.57</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2711,31 +2711,31 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>77.27</v>
+        <v>31.82</v>
       </c>
     </row>
   </sheetData>
@@ -2785,22 +2785,22 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>53.85</v>
+        <v>58.97</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>51.28</v>
+        <v>56.41</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>53.85</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2817,16 +2817,16 @@
         <v>65.84999999999999</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>58.54</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>73.17</v>
+        <v>65.84999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2837,22 +2837,22 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2863,10 +2863,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>58.97</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E5">
         <v>19</v>
@@ -2875,10 +2875,10 @@
         <v>48.72</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>48.72</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2889,22 +2889,22 @@
         <v>35</v>
       </c>
       <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>57.14</v>
       </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>51.43</v>
-      </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>65.70999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2915,22 +2915,22 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>58.33</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>38.89</v>
+        <v>55.56</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2947,16 +2947,16 @@
         <v>46.15</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>35.9</v>
+        <v>46.15</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>35.9</v>
+        <v>74.36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2973,16 +2973,16 @@
         <v>64.86</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>48.65</v>
+        <v>51.35</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>64.86</v>
+        <v>75.68000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2993,22 +2993,22 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>39.29</v>
+        <v>46.43</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>42.86</v>
+        <v>53.57</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>46.43</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3031,10 +3031,10 @@
         <v>41.67</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>41.67</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3051,16 +3051,16 @@
         <v>29.73</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>29.73</v>
+        <v>32.43</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>32.43</v>
+        <v>59.46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3071,22 +3071,22 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>66.67</v>
+        <v>69.44</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>69.44</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3097,22 +3097,22 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>58.33</v>
+        <v>61.11</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>38.89</v>
+        <v>69.44</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>58.33</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3129,16 +3129,16 @@
         <v>72.22</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3155,16 +3155,16 @@
         <v>36.36</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>31.82</v>
+        <v>36.36</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>36.36</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3175,22 +3175,22 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>76.47</v>
+        <v>79.41</v>
       </c>
       <c r="E17">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>67.65000000000001</v>
+        <v>79.41</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>79.41</v>
+        <v>88.23999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3201,22 +3201,22 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>57.69</v>
+        <v>69.23</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>34.62</v>
+        <v>65.38</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>61.54</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3233,16 +3233,16 @@
         <v>45.71</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>31.43</v>
+        <v>45.71</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>45.71</v>
+        <v>91.43000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3259,16 +3259,16 @@
         <v>27.78</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>19.44</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3285,16 +3285,16 @@
         <v>56.25</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>46.88</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>53.13</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3311,16 +3311,16 @@
         <v>71.43000000000001</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>61.9</v>
+        <v>76.19</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3337,16 +3337,16 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>57.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3357,10 +3357,10 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>52.17</v>
+        <v>60.87</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -3369,10 +3369,10 @@
         <v>34.78</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>34.78</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3383,22 +3383,22 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>17.24</v>
+        <v>20.69</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>10.34</v>
+        <v>13.79</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>17.24</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3415,16 +3415,16 @@
         <v>51.52</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>57.58</v>
+        <v>60.61</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H26">
-        <v>63.64</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3435,22 +3435,22 @@
         <v>39</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>41.03</v>
+        <v>46.15</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>30.77</v>
+        <v>43.59</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>41.03</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3461,22 +3461,22 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>30.77</v>
+        <v>43.59</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>20.51</v>
+        <v>46.15</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H28">
-        <v>30.77</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3513,22 +3513,22 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>41.38</v>
+        <v>48.28</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>37.93</v>
+        <v>44.83</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H30">
-        <v>37.93</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3551,10 +3551,10 @@
         <v>72</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3571,16 +3571,16 @@
         <v>28.57</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>14.29</v>
+        <v>28.57</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H32">
-        <v>33.33</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3597,16 +3597,16 @@
         <v>67.86</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>64.29000000000001</v>
+        <v>75</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H33">
-        <v>71.43000000000001</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3617,22 +3617,22 @@
         <v>22</v>
       </c>
       <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>27.27</v>
+      </c>
+      <c r="E34">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>22.73</v>
       </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>13.64</v>
-      </c>
       <c r="G34">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H34">
-        <v>22.73</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -727,19 +727,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>14</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>85</v>
@@ -762,34 +762,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
       <c r="H6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>55.68</v>
+        <v>53.98</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -812,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -913,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>124</v>
@@ -1027,19 +1027,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>25</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>68</v>
@@ -1062,34 +1062,34 @@
         <v>176</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>55.11</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1112,10 +1112,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>19</v>
@@ -1204,28 +1204,28 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2">
-        <v>37.21</v>
+        <v>36.74</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1330,25 +1330,25 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>23</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5">
-        <v>38.82</v>
+        <v>38.16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1368,28 +1368,28 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>13</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>43.75</v>
+        <v>39.77</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1421,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7">
         <v>97</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1548,16 +1548,16 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>34.15</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1688,19 +1688,19 @@
         <v>2</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>22</v>
@@ -2261,25 +2261,25 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>23.81</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2410,28 +2410,28 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>30.3</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2448,28 +2448,28 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L27">
-        <v>48.72</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2495,10 +2495,10 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>21</v>
@@ -2527,25 +2527,25 @@
         <v>0</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>5</v>
       </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
       <c r="H29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29">
-        <v>36.11</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2823,10 +2823,10 @@
         <v>68.29000000000001</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>65.84999999999999</v>
+        <v>68.29000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3317,10 +3317,10 @@
         <v>57.14</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>76.19</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3415,16 +3415,16 @@
         <v>51.52</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>60.61</v>
+        <v>63.64</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H26">
-        <v>69.7</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3435,10 +3435,10 @@
         <v>39</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>46.15</v>
+        <v>51.28</v>
       </c>
       <c r="E27">
         <v>17</v>
@@ -3447,10 +3447,10 @@
         <v>43.59</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H27">
-        <v>51.28</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3487,10 +3487,10 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>55.56</v>
+        <v>58.33</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -3499,10 +3499,10 @@
         <v>55.56</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>63.89</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -604,28 +604,28 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>36.28</v>
+        <v>34.88</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -727,28 +727,28 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>14</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>44.08</v>
+        <v>39.47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -768,28 +768,28 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
       <c r="J6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M6">
-        <v>53.98</v>
+        <v>52.27</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -904,28 +904,28 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
       <c r="I2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M2">
-        <v>42.33</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1027,28 +1027,28 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>25</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5">
-        <v>55.26</v>
+        <v>54.61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1065,31 +1065,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
         <v>19</v>
       </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
       <c r="J6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M6">
-        <v>54.55</v>
+        <v>50.57</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1112,10 +1112,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>19</v>
@@ -1198,34 +1198,34 @@
         <v>215</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
       <c r="H2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M2">
-        <v>36.74</v>
+        <v>33.02</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1251,13 +1251,13 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>145</v>
@@ -1298,16 +1298,16 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>6.35</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1330,25 +1330,25 @@
         <v>2</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>23</v>
-      </c>
       <c r="J5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M5">
-        <v>38.16</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1371,25 +1371,25 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L6">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>39.77</v>
+        <v>32.95</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1415,22 +1415,22 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>22.4</v>
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
@@ -1501,25 +1501,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>41.03</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1539,25 +1539,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>31.71</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1568,10 +1568,10 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1583,19 +1583,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1653,25 +1653,25 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6">
-        <v>34.29</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1685,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7">
-        <v>38.89</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>20</v>
@@ -1887,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J12">
         <v>22</v>
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2185,25 +2185,25 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
         <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
       </c>
       <c r="I20">
         <v>7</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L20">
-        <v>72.22</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2223,25 +2223,25 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>37.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2267,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>19.05</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2299,25 +2299,25 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2346,16 +2346,16 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>26.09</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2413,25 +2413,25 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>18.18</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2451,25 +2451,25 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L27">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2489,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2530,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>33.33</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2644,22 +2644,22 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
       <c r="J32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2785,22 +2785,22 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>58.97</v>
+        <v>66.67</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>58.97</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2823,10 +2823,10 @@
         <v>68.29000000000001</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>68.29000000000001</v>
+        <v>78.05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2843,16 +2843,16 @@
         <v>80</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2895,16 +2895,16 @@
         <v>60</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>65.70999999999999</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2921,16 +2921,16 @@
         <v>58.33</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>55.56</v>
+        <v>58.33</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>61.11</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3109,10 +3109,10 @@
         <v>69.44</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>97.22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3253,22 +3253,22 @@
         <v>36</v>
       </c>
       <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>33.33</v>
+      </c>
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>27.78</v>
       </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
       <c r="G20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>27.78</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3291,10 +3291,10 @@
         <v>50</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>62.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3305,10 +3305,10 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -3317,10 +3317,10 @@
         <v>57.14</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22">
-        <v>80.95</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3331,10 +3331,10 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>23</v>
@@ -3343,10 +3343,10 @@
         <v>57.5</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>75</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3369,10 +3369,10 @@
         <v>34.78</v>
       </c>
       <c r="G24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24">
-        <v>73.91</v>
+        <v>82.61</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3421,10 +3421,10 @@
         <v>63.64</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26">
-        <v>81.81999999999999</v>
+        <v>84.84999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3435,22 +3435,22 @@
         <v>39</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>51.28</v>
+        <v>56.41</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>43.59</v>
+        <v>48.72</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3487,22 +3487,22 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>58.33</v>
+        <v>61.11</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F29">
-        <v>55.56</v>
+        <v>69.44</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>66.67</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3577,10 +3577,10 @@
         <v>28.57</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="33" spans="1:8">

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -727,13 +727,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>24</v>
@@ -768,19 +768,19 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
       <c r="J6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>84</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -1027,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1068,28 +1068,28 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>14</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
+        <v>89</v>
+      </c>
+      <c r="L6">
         <v>87</v>
       </c>
-      <c r="L6">
-        <v>89</v>
-      </c>
       <c r="M6">
-        <v>50.57</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1216,16 +1216,16 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>33.02</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1292,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>178</v>
@@ -1327,28 +1327,28 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>9</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
       </c>
       <c r="J5">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5">
-        <v>24.34</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1368,28 +1368,28 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>32.95</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1412,25 +1412,25 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
       <c r="I7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>21.6</v>
+        <v>20.8</v>
       </c>
     </row>
   </sheetData>
@@ -1586,16 +1586,16 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>20</v>
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2229,19 +2229,19 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2258,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>17.39</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2486,16 +2486,16 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
         <v>4</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -2536,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2571,19 +2571,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>24.14</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2849,10 +2849,10 @@
         <v>72</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3291,10 +3291,10 @@
         <v>50</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>71.88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3369,10 +3369,10 @@
         <v>34.78</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>82.61</v>
+        <v>78.26000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3493,16 +3493,16 @@
         <v>61.11</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F29">
-        <v>69.44</v>
+        <v>75</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>88.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3525,10 +3525,10 @@
         <v>44.83</v>
       </c>
       <c r="G30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>75.86</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="31" spans="1:8">

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>24</v>
@@ -765,22 +765,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>84</v>
@@ -1027,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1036,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>32</v>
@@ -1065,31 +1065,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M6">
-        <v>49.43</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
         <v>19</v>
       </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
       <c r="K7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7">
-        <v>49.6</v>
+        <v>48.8</v>
       </c>
     </row>
   </sheetData>
@@ -1327,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -1365,22 +1365,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>122</v>
@@ -1421,16 +1421,16 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
     </row>
   </sheetData>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2372,28 +2372,28 @@
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L25">
-        <v>58.62</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2457,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L27">
-        <v>35.9</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2483,31 +2483,31 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>46.15</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2726,16 +2726,16 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>31.82</v>
+        <v>40.91</v>
       </c>
     </row>
   </sheetData>
@@ -3389,16 +3389,16 @@
         <v>20.69</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>13.79</v>
+        <v>17.24</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>41.38</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3441,16 +3441,16 @@
         <v>56.41</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>48.72</v>
+        <v>51.28</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>64.09999999999999</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3473,10 +3473,10 @@
         <v>46.15</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>53.85</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3571,10 +3571,10 @@
         <v>28.57</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>28.57</v>
+        <v>33.33</v>
       </c>
       <c r="G32">
         <v>12</v>
@@ -3629,10 +3629,10 @@
         <v>22.73</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34">
-        <v>68.18000000000001</v>
+        <v>59.09</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -601,31 +601,31 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>22</v>
       </c>
-      <c r="F2">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>68</v>
-      </c>
-      <c r="H2">
-        <v>79</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L2">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -642,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
         <v>52</v>
       </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>54</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>73.87</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -680,34 +680,34 @@
         <v>188</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L4">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>90.43000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -724,31 +724,31 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
         <v>19</v>
       </c>
-      <c r="G5">
-        <v>63</v>
-      </c>
-      <c r="H5">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
       <c r="J5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L5">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>61.27</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -765,31 +765,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L6">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -806,31 +806,31 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
         <v>38</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L7">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>92.12</v>
       </c>
     </row>
   </sheetData>
@@ -1201,31 +1201,31 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>22</v>
       </c>
-      <c r="F2">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>68</v>
-      </c>
-      <c r="H2">
-        <v>79</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L2">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1242,31 +1242,31 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
         <v>52</v>
       </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>54</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>73.87</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1280,34 +1280,34 @@
         <v>188</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L4">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>90.43000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1324,31 +1324,31 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
         <v>19</v>
       </c>
-      <c r="G5">
-        <v>63</v>
-      </c>
-      <c r="H5">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
       <c r="J5">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L5">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>61.27</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1365,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L6">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1406,31 +1406,31 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
         <v>38</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L7">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>92.12</v>
       </c>
     </row>
   </sheetData>
@@ -1495,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>61.76</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1533,31 +1533,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>67.73999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1609,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>55.81</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1647,31 +1647,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1685,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1723,16 +1723,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1814,16 +1814,16 @@
         <v>4</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1840,28 +1840,28 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>14</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>65.70999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1875,31 +1875,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>71.88</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1913,31 +1913,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>70.59</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1948,34 +1948,34 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1992,19 +1992,19 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
         <v>13</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2068,19 +2068,19 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2100,25 +2100,25 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2147,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
         <v>16</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2220,28 +2220,28 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2255,31 +2255,31 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>33</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>72.09</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2296,28 +2296,28 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K23">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>51.72</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2331,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2369,31 +2369,31 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>75.76000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2407,31 +2407,31 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K26">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2451,25 +2451,25 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>76.19</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2483,31 +2483,31 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K28">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2524,28 +2524,28 @@
         <v>4</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>12</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2565,25 +2565,25 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2644,22 +2644,22 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2673,22 +2673,22 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>8</v>
       </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>24</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
       <c r="H33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2711,31 +2711,31 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>96.97</v>
       </c>
     </row>
   </sheetData>
@@ -2785,10 +2785,10 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>38.24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2811,10 +2811,10 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>32.26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2837,10 +2837,10 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>63.89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2863,10 +2863,10 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>44.19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>44.19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2889,10 +2889,10 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>38.64</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2915,10 +2915,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2967,10 +2967,10 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>38.46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2993,10 +2993,10 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3019,10 +3019,10 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>34.29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3045,10 +3045,10 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>28.13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3071,10 +3071,10 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>29.41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3097,10 +3097,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>47.37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3253,10 +3253,10 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>41.03</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3279,10 +3279,10 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>38.64</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3291,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3305,10 +3305,10 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>27.91</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>48.28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3357,10 +3357,10 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3383,10 +3383,10 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>24.24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3409,10 +3409,10 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>61.29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3435,10 +3435,10 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>23.81</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3461,10 +3461,10 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>51.43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3487,10 +3487,10 @@
         <v>22</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3513,10 +3513,10 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3539,10 +3539,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3565,10 +3565,10 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3617,10 +3617,10 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -595,13 +595,13 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -613,19 +613,19 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L2">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="M2">
-        <v>54.72</v>
+        <v>49.29</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -636,37 +636,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>22</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M3">
-        <v>73.87</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -689,25 +689,25 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M4">
-        <v>90.43000000000001</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -718,37 +718,37 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>61.27</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -765,31 +765,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>59.86</v>
+        <v>53.52</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -806,31 +806,31 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
         <v>38</v>
       </c>
-      <c r="J7">
-        <v>57</v>
-      </c>
       <c r="K7">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="L7">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>92.12</v>
+        <v>63.64</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +895,13 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -936,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -1018,13 +1018,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -1195,13 +1195,13 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -1213,19 +1213,19 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L2">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="M2">
-        <v>54.72</v>
+        <v>49.29</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1236,37 +1236,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>22</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M3">
-        <v>73.87</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1289,25 +1289,25 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M4">
-        <v>90.43000000000001</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1318,37 +1318,37 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>61.27</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1365,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L6">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>59.86</v>
+        <v>53.52</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1406,31 +1406,31 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
         <v>38</v>
       </c>
-      <c r="J7">
-        <v>57</v>
-      </c>
       <c r="K7">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="L7">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>92.12</v>
+        <v>63.64</v>
       </c>
     </row>
   </sheetData>
@@ -1548,16 +1548,16 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>67.73999999999999</v>
+        <v>64.52</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1624,16 +1624,16 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>55.81</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1641,13 +1641,13 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1659,19 +1659,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L6">
-        <v>61.36</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1697,19 +1697,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>41.67</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1717,37 +1717,37 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1793,37 +1793,37 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1831,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11">
-        <v>65.70999999999999</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1878,13 +1878,13 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1907,13 +1907,13 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1925,19 +1925,19 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13">
         <v>24</v>
       </c>
       <c r="L13">
-        <v>70.59</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14">
-        <v>52.63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1998,22 +1998,22 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="I15">
-        <v>24</v>
-      </c>
       <c r="J15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2039,19 +2039,19 @@
         <v>3</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>13</v>
-      </c>
       <c r="J16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2074,22 +2074,22 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2118,16 +2118,16 @@
         <v>3</v>
       </c>
       <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>11</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2150,22 +2150,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K19">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2173,16 +2173,16 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -2200,10 +2200,10 @@
         <v>16</v>
       </c>
       <c r="K20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20">
-        <v>58.97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2217,31 +2217,31 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L21">
-        <v>61.36</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2267,19 +2267,19 @@
         <v>3</v>
       </c>
       <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
         <v>8</v>
       </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
       <c r="J22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K22">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L22">
-        <v>72.09</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2325,16 +2325,16 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2346,16 +2346,16 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24">
-        <v>55.56</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2454,22 +2454,22 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L27">
-        <v>76.19</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2498,16 +2498,16 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L28">
-        <v>48.57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2521,31 +2521,31 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>4</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L29">
-        <v>68.18000000000001</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2571,19 +2571,19 @@
         <v>4</v>
       </c>
       <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
         <v>6</v>
       </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
       <c r="K30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L30">
-        <v>86.95999999999999</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2609,19 +2609,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K31">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L31">
-        <v>91.18000000000001</v>
+        <v>64.70999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2638,28 +2638,28 @@
         <v>6</v>
       </c>
       <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>4</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
         <v>15</v>
       </c>
-      <c r="J32">
-        <v>6</v>
-      </c>
       <c r="K32">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L32">
-        <v>84.20999999999999</v>
+        <v>60.53</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2682,22 +2682,22 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2723,19 +2723,19 @@
         <v>2</v>
       </c>
       <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
         <v>7</v>
       </c>
-      <c r="I34">
-        <v>12</v>
-      </c>
       <c r="J34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L34">
-        <v>96.97</v>
+        <v>72.73</v>
       </c>
     </row>
   </sheetData>
@@ -2811,10 +2811,10 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>32.26</v>
+        <v>35.48</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>32.26</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2863,10 +2863,10 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>44.19</v>
+        <v>51.16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>44.19</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2886,13 +2886,13 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>38.64</v>
+        <v>48.84</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>38.64</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2915,10 +2915,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>58.33</v>
+        <v>70.83</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>58.33</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2938,13 +2938,13 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2990,13 +2990,13 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3016,13 +3016,13 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>34.29</v>
+        <v>38.89</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>34.29</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3068,13 +3068,13 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>29.41</v>
+        <v>31.43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>29.41</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3097,10 +3097,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>47.37</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>47.37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3123,10 +3123,10 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3135,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3149,10 +3149,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>46.15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3175,10 +3175,10 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>65.22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3201,10 +3201,10 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>34.38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3227,10 +3227,10 @@
         <v>34</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3239,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>67.65000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3250,13 +3250,13 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20">
-        <v>41.03</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>41.03</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3279,10 +3279,10 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>38.64</v>
+        <v>45.45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3291,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>38.64</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3305,10 +3305,10 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>27.91</v>
+        <v>39.53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>27.91</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3354,13 +3354,13 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>44.44</v>
+        <v>47.62</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>44.44</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3435,10 +3435,10 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>23.81</v>
+        <v>38.1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>23.81</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3461,10 +3461,10 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>51.43</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H28">
-        <v>51.43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3487,10 +3487,10 @@
         <v>22</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>31.82</v>
+        <v>45.45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>31.82</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3513,10 +3513,10 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>13.04</v>
+        <v>26.09</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>13.04</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3539,10 +3539,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>8.82</v>
+        <v>35.29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>8.82</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3565,10 +3565,10 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>15.79</v>
+        <v>39.47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H32">
-        <v>15.79</v>
+        <v>39.47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3591,10 +3591,10 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3617,10 +3617,10 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>3.03</v>
+        <v>27.27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H34">
-        <v>3.03</v>
+        <v>27.27</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -610,22 +610,22 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>49.29</v>
+        <v>47.39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -651,22 +651,22 @@
         <v>19</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M3">
-        <v>71.43000000000001</v>
+        <v>64.04000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -733,10 +733,10 @@
         <v>13</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -771,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -1210,22 +1210,22 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>49.29</v>
+        <v>47.39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1251,22 +1251,22 @@
         <v>19</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M3">
-        <v>71.43000000000001</v>
+        <v>64.04000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1333,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -1371,10 +1371,10 @@
         <v>16</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -1504,13 +1504,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -1545,19 +1545,19 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>7</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>64.52</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1624,16 +1624,16 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5">
-        <v>48.84</v>
+        <v>46.51</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1662,16 +1662,16 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="K6">
         <v>21</v>
       </c>
-      <c r="K6">
-        <v>22</v>
-      </c>
       <c r="L6">
-        <v>51.16</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>29.17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1735,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L8">
-        <v>91.67</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1773,19 +1773,19 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L9">
-        <v>61.54</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1846,22 +1846,22 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11">
-        <v>61.11</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1890,16 +1890,16 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L12">
-        <v>71.88</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2264,10 +2264,10 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2811,10 +2811,10 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>35.48</v>
+        <v>38.71</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>35.48</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2863,10 +2863,10 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>51.16</v>
+        <v>53.49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5">
-        <v>51.16</v>
+        <v>53.49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2889,10 +2889,10 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>48.84</v>
+        <v>51.16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>48.84</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2915,10 +2915,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>70.83</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>70.83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2941,10 +2941,10 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>8.33</v>
+        <v>19.44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>8.33</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2967,10 +2967,10 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>38.46</v>
+        <v>53.85</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>38.46</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3019,10 +3019,10 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>38.89</v>
+        <v>41.67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>38.89</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3045,10 +3045,10 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>28.13</v>
+        <v>40.63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>28.13</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Totales Generales.xlsx
+++ b/Totales Generales.xlsx
@@ -616,16 +616,16 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2">
-        <v>47.39</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -648,16 +648,16 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>73</v>
@@ -683,31 +683,31 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>11</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M4">
-        <v>45.21</v>
+        <v>43.62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>13</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -774,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>12</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>66</v>
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -818,10 +818,10 @@
         <v>14</v>
       </c>
       <c r="I7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>60</v>
@@ -1216,16 +1216,16 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2">
-        <v>47.39</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>73</v>
@@ -1283,31 +1283,31 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>11</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M4">
-        <v>45.21</v>
+        <v>43.62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>13</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -1374,13 +1374,13 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>12</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>66</v>
@@ -1406,10 +1406,10 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -1418,10 +1418,10 @@
         <v>14</v>
       </c>
       <c r="I7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>60</v>
@@ -1548,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3">
-        <v>61.29</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1843,16 +1843,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>15</v>
@@ -1989,16 +1989,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2007,13 +2007,13 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>34.29</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2036,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2109,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2150,22 +2150,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>5</v>
       </c>
       <c r="J19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>32.35</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2179,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2378,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -2533,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -2673,22 +2673,22 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>6</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
       </c>
       <c r="J33">
         <v>18</v>
@@ -2811,10 +2811,10 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>38.71</v>
+        <v>41.94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>38.71</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3123,10 +3123,10 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>65.70999999999999</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3135,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>65.70999999999999</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3227,10 +3227,10 @@
         <v>34</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>67.65000000000001</v>
+        <v>73.53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3239,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>67.65000000000001</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="20" spans="1:8">
